--- a/tests/artefacts/api/exports/export_donor_template.xlsx
+++ b/tests/artefacts/api/exports/export_donor_template.xlsx
@@ -517,7 +517,7 @@
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>2020 Q2 (D)</t>
+          <t>2020 Q3 (D)</t>
         </is>
       </c>
       <c r="D16" s="5" t="inlineStr">

--- a/tests/artefacts/api/exports/export_donor_template.xlsx
+++ b/tests/artefacts/api/exports/export_donor_template.xlsx
@@ -517,7 +517,7 @@
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>2020 Q3 (D)</t>
+          <t>FY2021 Q2 (D)</t>
         </is>
       </c>
       <c r="D16" s="5" t="inlineStr">
@@ -640,9 +640,7 @@
           <t>Education project</t>
         </is>
       </c>
-      <c r="D2" s="8" t="n">
-        <v>100</v>
-      </c>
+      <c r="D2" s="8" t="n"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>Implementation</t>
@@ -666,9 +664,7 @@
           <t>Health project</t>
         </is>
       </c>
-      <c r="D3" s="8" t="n">
-        <v>2000</v>
-      </c>
+      <c r="D3" s="8" t="n"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>Implementation</t>
@@ -692,9 +688,7 @@
           <t>Roads project</t>
         </is>
       </c>
-      <c r="D4" s="8" t="n">
-        <v>300</v>
-      </c>
+      <c r="D4" s="8" t="n"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>Closed</t>
@@ -718,9 +712,7 @@
           <t>Infant mortality project</t>
         </is>
       </c>
-      <c r="D5" s="8" t="n">
-        <v>400</v>
-      </c>
+      <c r="D5" s="8" t="n"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>Closed</t>
@@ -744,9 +736,7 @@
           <t>Second road project</t>
         </is>
       </c>
-      <c r="D6" s="8" t="n">
-        <v>5000</v>
-      </c>
+      <c r="D6" s="8" t="n"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>Implementation</t>
@@ -770,9 +760,7 @@
           <t>Primary education project</t>
         </is>
       </c>
-      <c r="D7" s="8" t="n">
-        <v>100</v>
-      </c>
+      <c r="D7" s="8" t="n"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>Implementation</t>
@@ -796,9 +784,7 @@
           <t>Airport project</t>
         </is>
       </c>
-      <c r="D8" s="8" t="n">
-        <v>200</v>
-      </c>
+      <c r="D8" s="8" t="n"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>Implementation</t>
@@ -822,9 +808,7 @@
           <t>Environment project</t>
         </is>
       </c>
-      <c r="D9" s="8" t="n">
-        <v>700</v>
-      </c>
+      <c r="D9" s="8" t="n"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>Implementation</t>
@@ -848,9 +832,7 @@
           <t>Nutrition project</t>
         </is>
       </c>
-      <c r="D10" s="8" t="n">
-        <v>450</v>
-      </c>
+      <c r="D10" s="8" t="n"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>Closed</t>
@@ -874,9 +856,7 @@
           <t>Vaccination project</t>
         </is>
       </c>
-      <c r="D11" s="8" t="n">
-        <v>1300</v>
-      </c>
+      <c r="D11" s="8" t="n"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>Implementation</t>
